--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>功能模块</t>
   </si>
@@ -521,6 +521,10 @@
   </si>
   <si>
     <t>丁龄勃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1070,8 +1074,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1223,7 +1227,9 @@
       <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1240,7 +1246,9 @@
       <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1255,7 +1263,9 @@
       <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">

--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:XDT36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1227,10 +1227,12 @@
       <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="14"/>
@@ -1246,10 +1248,12 @@
       <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="15"/>
@@ -1263,10 +1267,12 @@
       <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="7">
+        <v>5.13</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">

--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>功能模块</t>
   </si>
@@ -525,6 +525,41 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1110,7 @@
   <dimension ref="A1:XDT36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1126,7 +1161,9 @@
         <v>41</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="13"/>
@@ -1140,7 +1177,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1159,8 +1196,12 @@
       <c r="E4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="13"/>

--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>功能模块</t>
   </si>
@@ -1109,8 +1109,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1643,8 +1643,12 @@
       <c r="E31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="9" t="s">

--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>功能模块</t>
   </si>
@@ -560,6 +560,108 @@
       </rPr>
       <t>号</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息盒子消息数据提醒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息盒子开启的状态下接口提醒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1107,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:XDT36"/>
+  <dimension ref="A1:XDT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1634,113 +1736,179 @@
     <row r="31" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1">
-        <v>5.14</v>
+        <v>5.15</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>功能模块</t>
   </si>
@@ -661,7 +661,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>处理中</t>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意/拒绝好友申请</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入/退出群聊后聊天面板显示提示消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开群成员后，群昵称显示群聊人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1209,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:XDT40"/>
+  <dimension ref="A1:XDT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1642,22 +1658,18 @@
     <row r="25" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7" t="s">
@@ -1672,11 +1684,9 @@
     <row r="27" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
@@ -1687,33 +1697,35 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="13"/>
       <c r="B28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D28" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1721,7 +1733,7 @@
     <row r="30" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="7" t="s">
@@ -1736,62 +1748,60 @@
     <row r="31" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5.15</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1">
-        <v>5.14</v>
+        <v>5.15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5.14</v>
+      </c>
       <c r="G33" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="7" t="s">
@@ -1800,49 +1810,53 @@
       <c r="E34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
+      <c r="F34" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A36" s="17"/>
       <c r="B36" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>43</v>
@@ -1853,13 +1867,11 @@
     <row r="38" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>43</v>
@@ -1867,48 +1879,89 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="11"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A37:A43"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>功能模块</t>
   </si>
@@ -248,7 +248,7 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>14</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -283,7 +283,7 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>10</t>
+      <t>13</t>
     </r>
     <r>
       <rPr>
@@ -318,7 +318,7 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>13</t>
+      <t>15</t>
     </r>
     <r>
       <rPr>
@@ -333,18 +333,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
+    <t>默认只显示最近一周聊天记录；发消息可指定人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人信息维护：昵称，性别，出生日期，职位，邮箱，个性签名，个人说明，所在地，家乡，头像，（年龄），个人编号（类似</t>
     </r>
     <r>
       <rPr>
@@ -353,34 +354,58 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认只显示最近一周聊天记录；发消息可指定人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个人信息维护：昵称，性别，出生日期，职位，邮箱，个性签名，个人说明，所在地，家乡，头像，（年龄），个人编号（类似</t>
+      <t>QQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号，查找好友时可以按此编号查找，唯一）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑个人资料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息盒子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示好友申请，公告等信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序调整为历史会话-联系人-群组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加分组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改分组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除分组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动联系人至</t>
     </r>
     <r>
       <rPr>
@@ -389,66 +414,85 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>QQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号，查找好友时可以按此编号查找，唯一）</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑个人资料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息盒子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示好友申请，公告等信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序调整为历史会话-联系人-群组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人数据显示-查询分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人数据显示-查询分组下的好友</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>移动联系人至</t>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分组</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起群聊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出群聊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群内昵称修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>改自己的昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员-发消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊天后台处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发公告</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -457,66 +501,26 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分组</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改昵称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起群聊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出群聊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群内昵称修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>改自己的昵称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员-发消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员-查询资料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群聊天后台处理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发公告</t>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息盒子消息数据提醒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息盒子开启的状态下接口提醒</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -525,6 +529,30 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聊处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意/拒绝好友申请</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入/退出群聊后聊天面板显示提示消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开群成员后，群昵称显示群聊人数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -548,7 +576,7 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>11</t>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -563,11 +591,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>离线消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁龄勃</t>
+    <t>处理中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加好友处理成功，还需要发送申请消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图片，昵称，好友列表右键均可以查看</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -591,7 +631,7 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>15</t>
+      <t>17</t>
     </r>
     <r>
       <rPr>
@@ -603,18 +643,6 @@
       </rPr>
       <t>号</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息盒子消息数据提醒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息盒子开启的状态下接口提醒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁龄勃</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -638,7 +666,7 @@
         <rFont val="Microsoft YaHei Light"/>
         <family val="1"/>
       </rPr>
-      <t>15</t>
+      <t>21</t>
     </r>
     <r>
       <rPr>
@@ -653,31 +681,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群聊处理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同意/拒绝好友申请</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入/退出群聊后聊天面板显示提示消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展开群成员后，群昵称显示群聊人数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫敏兰</t>
+    <t>修改群资料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改名称备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人数据显示-查询分组，分组下的好友</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1225,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:XDT43"/>
+  <dimension ref="A1:XDT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1238,10 +1250,11 @@
     <col min="3" max="3" width="31.25" style="4" customWidth="1"/>
     <col min="4" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="2"/>
+    <col min="8" max="8" width="34.25" style="2" customWidth="1"/>
+    <col min="9" max="16348" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="39.6" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="39.6" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1263,50 +1276,55 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>36</v>
@@ -1318,10 +1336,11 @@
         <v>5.14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="7" t="s">
         <v>16</v>
@@ -1336,9 +1355,14 @@
         <v>37</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="G5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="7" t="s">
         <v>18</v>
@@ -1350,12 +1374,13 @@
         <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>20</v>
@@ -1365,12 +1390,13 @@
         <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1384,16 +1410,17 @@
         <v>36</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7">
         <v>5.13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
         <v>12</v>
@@ -1405,16 +1432,17 @@
         <v>36</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7">
         <v>5.13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
@@ -1424,331 +1452,378 @@
         <v>36</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7">
         <v>5.13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="14"/>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
+      <c r="B16" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="14"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="13"/>
       <c r="B20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="D22" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="13"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="B27" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="13"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="7" t="s">
@@ -1757,211 +1832,194 @@
       <c r="E31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F31" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="1">
-        <v>5.15</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="7" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1">
-        <v>5.14</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5.17</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B35" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="10"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="11"/>
       <c r="B41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="H41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A35:A41"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/开发计划/IM开发计划-20190509.xlsx
+++ b/DOC/开发计划/IM开发计划-20190509.xlsx
@@ -1239,8 +1239,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XDT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1332,7 +1332,7 @@
       <c r="E4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>5.14</v>
       </c>
       <c r="G4" s="7" t="s">
